--- a/doc/勤務表.xlsx
+++ b/doc/勤務表.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1193,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1211,7 +1210,7 @@
       </c>
       <c r="H1" s="6">
         <f>SUM(G:G)</f>
-        <v>6.15625</v>
+        <v>6.114583333333333</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
@@ -1564,7 +1563,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D21" s="14">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E21" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.36458333333333337</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
@@ -1586,7 +1585,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D22" s="14">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E22" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1597,7 +1596,7 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.36458333333333337</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
@@ -1608,7 +1607,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D23" s="14">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E23" s="14">
         <v>4.1666666666666664E-2</v>
@@ -1619,7 +1618,7 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
